--- a/ProManage/CSharp组文档/A6G1项目分工及功能对照表_千古江山.xlsx
+++ b/ProManage/CSharp组文档/A6G1项目分工及功能对照表_千古江山.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <r>
       <rPr>
@@ -103,7 +103,7 @@
     <t>关于</t>
   </si>
   <si>
-    <t>提供游戏版本，和联系开发者选项</t>
+    <t>显示游戏版本，和联系开发者选项</t>
   </si>
   <si>
     <t>游戏选项</t>
@@ -112,19 +112,19 @@
     <t>经典模式</t>
   </si>
   <si>
-    <t>用户可以从官方提供的标准帝国和用户自定义添加的帝国中选择一个进行人机对战</t>
+    <t>用户可以从官方提供的标准帝国和用户自定义添加的帝国中选择一个进行人机对战战局</t>
   </si>
   <si>
     <t>随机模式</t>
   </si>
   <si>
-    <t>用户将随机获得一个官方提供的标准帝国或用户自定义添加的帝国，进行人机对战</t>
+    <t>用户将随机获得一个官方提供的标准帝国或用户自定义添加的帝国，进行人机对战战局</t>
   </si>
   <si>
     <t>多人模式</t>
   </si>
   <si>
-    <t>支持多用户从官方提供的标准帝国和用户自定义添加的帝国中选择一个进行用户间对战</t>
+    <t>支持多用户从官方提供的标准帝国和用户自定义添加的帝国中选择一个进行用户间对战战局</t>
   </si>
   <si>
     <t>自定义帝国</t>
@@ -154,6 +154,18 @@
     <t>拥有敌我双方数据展示，战斗结果提示，技能选择</t>
   </si>
   <si>
+    <t>保存游戏</t>
+  </si>
+  <si>
+    <t>用户可以保存游戏进度</t>
+  </si>
+  <si>
+    <t>读取进度</t>
+  </si>
+  <si>
+    <t>用户可以读取游戏进度</t>
+  </si>
+  <si>
     <t>战斗地图</t>
   </si>
   <si>
@@ -166,22 +178,16 @@
     <t>每一回合用户可以选择普通攻击，技能等手段进行操作</t>
   </si>
   <si>
+    <t>战斗复活</t>
+  </si>
+  <si>
+    <t>当领土面积为0时，进入一个小游戏阶段，小游戏的分数将关系到复活后的数据，未达到复活分数将退出当前战局</t>
+  </si>
+  <si>
     <t>战绩分析</t>
   </si>
   <si>
-    <t>当地方或我方领土面积为0时，游戏积分进入战绩分析，显示这个战局的数据和最终评分</t>
-  </si>
-  <si>
-    <t>保存游戏</t>
-  </si>
-  <si>
-    <t>用户可以保存游戏进度</t>
-  </si>
-  <si>
-    <t>读取进度</t>
-  </si>
-  <si>
-    <t>用户可以读取游戏进度</t>
+    <t>当战斗复活失败后，游戏进入战绩分析，显示这个战局的数据和最终评分</t>
   </si>
 </sst>
 </file>
@@ -189,13 +195,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +253,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -255,6 +329,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -263,13 +360,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -286,91 +376,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,6 +390,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="22"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -411,181 +424,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,6 +670,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -690,56 +753,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -762,10 +775,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -774,16 +787,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -792,120 +805,120 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -954,13 +967,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1283,10 +1302,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1689,14 +1708,14 @@
       <c r="D17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="E17" s="9"/>
       <c r="F17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="H17" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I17" s="9" t="s">
         <v>13</v>
       </c>
@@ -1712,15 +1731,11 @@
       <c r="D18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="G18" s="9"/>
       <c r="H18" s="9" t="s">
         <v>13</v>
       </c>
@@ -1728,12 +1743,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="50" customHeight="1" spans="1:9">
+    <row r="19" s="1" customFormat="1" ht="25" customHeight="1" spans="1:9">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="15"/>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -1745,12 +1760,8 @@
       <c r="F19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
         <v>13</v>
       </c>
@@ -1766,11 +1777,15 @@
       <c r="D20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="F20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="9"/>
+      <c r="G20" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" s="9" t="s">
         <v>13</v>
       </c>
@@ -1778,8 +1793,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="25" customHeight="1" spans="1:9">
-      <c r="A21" s="16">
+    <row r="21" s="1" customFormat="1" ht="50" customHeight="1" spans="1:9">
+      <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="15"/>
@@ -1789,25 +1804,51 @@
       <c r="D21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="F21" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
       <c r="I21" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="25" customHeight="1" spans="1:2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
+    <row r="22" s="1" customFormat="1" ht="25" customHeight="1" spans="1:9">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="25" customHeight="1" spans="1:2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+    </row>
+    <row r="27" ht="20.25" spans="2:2">
+      <c r="B27" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1818,7 +1859,7 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="B15:B22"/>
     <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
